--- a/data/financial_statements/soci/BK.xlsx
+++ b/data/financial_statements/soci/BK.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,1428 +584,1455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>2862000000</v>
+      </c>
+      <c r="C2">
         <v>5337000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4589000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4006000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4067000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4087000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4000000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4004000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3939000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3964000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4173000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4864000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5684000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5073000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>5087000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4978000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4986000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4812000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4775000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4640000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4096000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4328000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4182000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4011000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3887000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>4041000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3899000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3847000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3800000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3869000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3954000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>3871000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3779000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>4699000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3837000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3731000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3696000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>3866000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4104000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3725000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>-0.2963</v>
+      </c>
+      <c r="C3">
         <v>0.3058</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1473</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0005</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0325</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.031</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.0415</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.1768</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.307</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.2186</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.1797</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0229</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.14</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0542</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0653</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0728</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.2173</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1118</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1418</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1568</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0538</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.07099999999999999</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0726</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0426</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0229</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.0445</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0139</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0062</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0056</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.1766</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0305</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.0375</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0225</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.2155</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.06510000000000001</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0016</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>-0.0104</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0166</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0921</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.0179</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>1058000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>335000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>80000000</v>
-      </c>
-      <c r="E4">
-        <v>52000000</v>
       </c>
       <c r="F4">
         <v>52000000</v>
       </c>
       <c r="G4">
+        <v>52000000</v>
+      </c>
+      <c r="H4">
         <v>40000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>83000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>96000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>117000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>163000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>756000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>906000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1212000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1163000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1079000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>979000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>743000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>637000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>462000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>368000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>312000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>226000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>168000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>97000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>100000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>123000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>117000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>74000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>79000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>68000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>79000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>90000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>88000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>92000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>84000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>85000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>83000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>79000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>96000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>2862000000</v>
+      </c>
+      <c r="C5">
         <v>4279000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4254000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3926000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>4015000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4035000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3960000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3921000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>3843000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3847000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>4010000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>4108000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4778000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>3861000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3924000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>3899000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>4007000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>4069000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>4138000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>4178000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3728000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>4016000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>3956000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>3843000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>3790000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>3941000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>3776000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>3730000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>3726000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>3790000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>3886000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>3792000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>3689000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>4611000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>3745000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>3647000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>3611000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>3783000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>4025000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>3629000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>3217000000</v>
+      </c>
+      <c r="C6">
         <v>2952000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3142000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2991000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2931000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2854000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2672000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2744000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2914000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2664000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2803000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2855000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2928000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2544000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2609000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2677000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2952000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2687000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2696000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2685000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>2948000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2596000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2595000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2585000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2571000000</v>
-      </c>
-      <c r="Z6">
-        <v>2545000000</v>
       </c>
       <c r="AA6">
         <v>2545000000</v>
       </c>
       <c r="AB6">
+        <v>2545000000</v>
+      </c>
+      <c r="AC6">
         <v>2565000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2773000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>2604000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2597000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>2639000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>2652000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>2654000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>2737000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>2658000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>2799000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>2684000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>2697000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>2679000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>-371000000</v>
+      </c>
+      <c r="C7">
         <v>630000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1095000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>918000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1065000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1162000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1268000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1153000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>903000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1157000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1181000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1227000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1822000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>1287000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1285000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1193000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1020000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1334000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1394000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1444000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>728000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1368000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>1308000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1206000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1159000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1335000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1172000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1108000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>889000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>1120000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>1224000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1087000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>964000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1882000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>933000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>914000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>730000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>1018000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1235000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>864000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>680000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-7000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-18000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-7000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-17000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-18000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-11000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-59000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>3000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-800000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-220000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-122000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>12000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-2000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>-16000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-13000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-39000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>685000000</v>
+      </c>
+      <c r="C9">
         <v>630000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1095000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>918000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1065000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1162000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1268000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1153000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>903000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1157000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1181000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1227000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1822000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1287000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1285000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1193000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1020000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1334000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1394000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>1444000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>728000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1368000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1308000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1206000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1152000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1317000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1165000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1091000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>871000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1109000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1165000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1090000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>164000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1662000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>811000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>926000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>728000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>1002000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>1222000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>825000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>142000000</v>
+      </c>
+      <c r="C10">
         <v>242000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>231000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>153000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>196000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>219000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>241000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>221000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>148000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>213000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>216000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>265000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>373000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>246000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>264000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>237000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>150000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>220000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>286000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>282000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-453000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>348000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>332000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>269000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>280000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>324000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>290000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>283000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>175000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>282000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>276000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>280000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-93000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>556000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>217000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>232000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>172000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>19000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>339000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>1062000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>543000000</v>
+      </c>
+      <c r="C11">
         <v>388000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>864000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>765000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>869000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>943000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1027000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>932000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>755000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>944000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>965000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>962000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1449000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1041000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1021000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>956000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>870000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1114000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1108000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1162000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1181000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1020000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>976000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>937000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>872000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>993000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>875000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>808000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>696000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>827000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>889000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>810000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>257000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1106000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>594000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>694000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>556000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>983000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>883000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-237000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>34000000</v>
+      </c>
+      <c r="C12">
         <v>69000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>34000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>74000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>41000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>66000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>31000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>69000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>48000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>61000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>49000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>36000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>55000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>39000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>52000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>41000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>54000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>43000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>55000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>44000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>57000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>35000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>62000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>56000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>61000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>28000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>61000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>24000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>65000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>19000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>32000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>25000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>28000000</v>
-      </c>
-      <c r="AH12">
-        <v>33000000</v>
       </c>
       <c r="AI12">
         <v>33000000</v>
       </c>
       <c r="AJ12">
+        <v>33000000</v>
+      </c>
+      <c r="AK12">
         <v>26000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>36000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>31000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>27000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>16000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
         <v>-5000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-8000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>6000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-4000000</v>
-      </c>
-      <c r="G13">
-        <v>5000000</v>
       </c>
       <c r="H13">
         <v>5000000</v>
@@ -1900,834 +2041,852 @@
         <v>5000000</v>
       </c>
       <c r="J13">
+        <v>5000000</v>
+      </c>
+      <c r="K13">
         <v>7000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>15000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-18000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>9000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>4000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>10000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-11000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>5000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-9000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>6000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>2000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>1000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>15000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>2000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>6000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>2000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-9000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>3000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-6000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>36000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>31000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>24000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>23000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>17000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>20000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>17000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>8000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>40000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>16000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>509000000</v>
+      </c>
+      <c r="C14">
         <v>319000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>835000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>699000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>822000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>881000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>991000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>858000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>702000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>876000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>901000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>944000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1385000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>999000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>965000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>905000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>827000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1068000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>1048000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1127000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1118000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>983000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>913000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>866000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>809000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>959000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>812000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>793000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>628000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>814000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>821000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>754000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>205000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1050000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>544000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>648000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>503000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>944000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>816000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-269000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>0.62</v>
+      </c>
+      <c r="C15">
         <v>0.39</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.03</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.86</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.01</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.04</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.14</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.97</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.79</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.98</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1.01</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1.05</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1.52</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1.07</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.01</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.84</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1.07</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1.04</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1.11</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1.09</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.9399999999999999</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0.88</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0.83</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>0.77</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.9</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0.76</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>0.74</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.58</v>
-      </c>
-      <c r="AD15">
-        <v>0.74</v>
       </c>
       <c r="AE15">
         <v>0.74</v>
       </c>
       <c r="AF15">
+        <v>0.74</v>
+      </c>
+      <c r="AG15">
         <v>0.67</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.71</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>0.93</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.48</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>0.57</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.45</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>0.83</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>0.71</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>0.39</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.03</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.86</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.01</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.04</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.13</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.97</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.79</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.98</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.01</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.05</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.52</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.07</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.01</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.84</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.06</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.03</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.1</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1.08</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.9399999999999999</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.88</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.83</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>0.77</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.9</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.75</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.74</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.57</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.74</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.73</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.67</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.7</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.93</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.48</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.57</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.45</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.82</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.71</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-0.23</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>811586000</v>
+      </c>
+      <c r="C17">
         <v>811304000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>810903000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>809469000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>811463000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>844088000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>869460000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>882558000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>889928000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>889499000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>889020000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>894122000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>911324000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>933264000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>951281000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>962397000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>984343000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>999808000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1010179000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1016797000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1024828000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1035337000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1035829000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1041158000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1050888000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1062248000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>1072583000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1079641000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1088880000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1098003000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1113790000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1118602000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1120672000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1126946000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1133556000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1138645000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1142861000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1148724000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1152545000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1158819000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>815846000</v>
+      </c>
+      <c r="C18">
         <v>814516000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>813590000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>813986000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>817345000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>849028000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>873475000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>885655000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>891846000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>891069000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>890561000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>896689000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>914739000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>935677000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>953928000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>965960000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>988650000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1003665000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1014357000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1021731000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1030404000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1041138000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1041879000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1047746000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1056818000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1067682000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1078271000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1085284000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1096385000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1105645000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1122135000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1126306000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1129040000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1134871000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1139800000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1144510000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1147961000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1152679000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1155981000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1158819000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>0.8018</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.927</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.98</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.9872</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.9873</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.99</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.9792999999999999</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.9756</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.9705</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.9609</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.8446</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.8406</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0.7611</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>0.7714</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0.7832</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.8037</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>0.8456</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.8666</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.9004</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.9102</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.9278999999999999</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.946</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>0.9581</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>0.975</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>0.9752999999999999</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>0.9685</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>0.9696</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>0.9805</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>0.9796</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>0.9828</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>0.9796</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>0.9762</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>0.9813</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>0.976</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>0.9775</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>0.977</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>0.9785</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>0.9808</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>0.9742</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2846,1108 +3005,1135 @@
       <c r="AN20">
         <v>0</v>
       </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.2393</v>
+      </c>
+      <c r="C21">
         <v>0.118</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2386</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2292</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.2619</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.2843</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.317</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.288</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2292</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.2919</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.283</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.2523</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.3205</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.2537</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2526</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2397</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.2046</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2772</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2919</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.3112</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.1777</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.3161</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.3128</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.3007</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2964</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3259</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2988</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.2836</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.2292</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2866</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.2946</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.2816</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.0434</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.3537</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2114</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.2482</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.197</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2592</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2978</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2215</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1778</v>
+      </c>
+      <c r="C22">
         <v>0.0598</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.182</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.1745</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2021</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2156</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.2478</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.2143</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.1782</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.221</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.2159</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.1941</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.2437</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.1969</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1897</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.1818</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.1659</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2219</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2195</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2429</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.2729</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2271</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2183</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2159</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2081</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2373</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.2083</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.2061</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.1653</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.2104</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.2076</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.1948</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.0542</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.2235</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.1418</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1737</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1361</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2442</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1988</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-0.0722</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>543000000</v>
+      </c>
+      <c r="C23">
         <v>388000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>864000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>765000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>869000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>943000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1027000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>932000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>755000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>944000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>965000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>962000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1449000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1041000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1021000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>956000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>870000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1114000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>1108000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1162000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1181000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1020000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>976000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>937000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>872000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>993000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>875000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>808000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>696000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>827000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>889000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>810000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>257000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1106000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>594000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>694000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>556000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>983000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>883000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-237000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>543000000</v>
+      </c>
+      <c r="C24">
         <v>388000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>864000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>765000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>869000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>943000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1027000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>932000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>755000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>944000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>965000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>962000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1449000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1041000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1021000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>956000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>870000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1114000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1108000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1162000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>1181000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1020000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>976000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>937000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>872000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>993000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>875000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>808000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>696000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>827000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>889000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>810000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>257000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1106000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>594000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>694000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>556000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>983000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>883000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-237000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>0.6691</v>
+      </c>
+      <c r="C25">
         <v>0.4782</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.0655</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.9451000000000001</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1.0709</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.1172</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.1812</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.056</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.8484</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1.0613</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1.0855</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1.0759</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1.59</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1.1154</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1.0733</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.9933999999999999</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.8838</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1.1142</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1.0968</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>1.1428</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1.1524</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.9852</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.9422</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.9</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.8298</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.9348</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.8158</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.7484</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.6392</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.7532</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.7982</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.7241</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.2293</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.9814000000000001</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.524</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.6095</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.4865</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.8557</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.7661</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-0.2045</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>0.6656</v>
+      </c>
+      <c r="C26">
         <v>0.4764</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.062</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.9398</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.0632</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.1107</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.1758</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.0523</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.8466</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1.0594</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1.0836</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1.0728</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1.5841</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1.1126</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1.0703</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.9897</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.88</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1.1099</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>1.0923</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1.1373</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>1.1462</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.9797</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.9368</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.8943</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.8250999999999999</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.9301</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.8115</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.7445000000000001</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.6348</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.748</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.7922</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.7192</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.2276</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.9746</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.5211</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.6064000000000001</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.4843</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.8528</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.7639</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-0.2045</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>0.6691</v>
+      </c>
+      <c r="C27">
         <v>0.4782</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.0655</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.9451000000000001</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1.0709</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1.1172</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.1812</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.056</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.8484</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1.0613</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>1.0855</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>1.0759</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.59</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1.1154</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1.0733</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.9933999999999999</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.8838</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1.1142</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.0968</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>1.1428</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1.1524</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.9852</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.9422</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.9</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.8298</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.9348</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.8158</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.7484</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.6392</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.7532</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.7982</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.7241</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.2293</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.9814000000000001</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.524</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.6095</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.4865</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.8557</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.7661</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-0.2045</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>0.6656</v>
+      </c>
+      <c r="C28">
         <v>0.4764</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.062</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.9398</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.0632</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.1107</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.1758</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.0523</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.8466</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1.0594</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.0836</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.0728</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.5841</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.1126</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1.0703</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.9897</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.88</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1.1099</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.0923</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1.1373</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>1.1462</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.9797</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.9368</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.8943</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.8250999999999999</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.9301</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.8115</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.7445000000000001</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.6348</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.748</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.7922</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.7192</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.2276</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.9746</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.5211</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.6064000000000001</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.4843</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.8528</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.7639</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-0.2045</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>814516000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>813590000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>813986000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>817345000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>849028000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>873475000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>885655000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>891846000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>891069000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>890561000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>896689000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>914739000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>935677000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>953928000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>965960000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>988650000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1003665000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1014357000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1021737000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>1030404000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1041138000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1041879000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1047746000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1056818000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>1067682000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1078271000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>1085284000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1096385000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1105645000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1122135000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1126306000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>1129040000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1134871000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1139800000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1144510000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1147961000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1152679000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1155981000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1100000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4066,126 +4252,132 @@
       <c r="AN30">
         <v>0</v>
       </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>0.698</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.0874</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.856</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.7694</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.0132</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.7073</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-0.7927</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-0.2196</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.1963</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.6319</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-0.3464</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-0.4347</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.0016</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-0.3076</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-0.1906</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.6385999999999999</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.2585</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.5068</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-0.1836</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.3152</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.2043</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.1463</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-0.3052</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.2117</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.0235</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-0.0852</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.4663</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.0374</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.3492</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.6841</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>-0.0183</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.3138</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.1943</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.8965</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-0.2828</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-0.1588</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.2338</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.4349</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-0.7366</v>
       </c>
     </row>
